--- a/学期班级分布表(新)20250828.xlsx
+++ b/学期班级分布表(新)20250828.xlsx
@@ -42,7 +42,7 @@
   <si>
     <t>2406
 25平面设计1班
-刘秀艳</t>
+王临泰</t>
   </si>
   <si>
     <t>2408
@@ -55,7 +55,8 @@
 李祎萌</t>
   </si>
   <si>
-    <t>大数据技能培训组
+    <t>2412
+大数据技能培训组
 马燕龙</t>
   </si>
   <si>
@@ -1243,7 +1244,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
